--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl17-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl17-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.149358</v>
+        <v>0.244729</v>
       </c>
       <c r="H2">
-        <v>0.448074</v>
+        <v>0.734187</v>
       </c>
       <c r="I2">
-        <v>0.3337024803851839</v>
+        <v>0.4052712693903822</v>
       </c>
       <c r="J2">
-        <v>0.333702480385184</v>
+        <v>0.4052712693903822</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.00931919241</v>
+        <v>0.015269865955</v>
       </c>
       <c r="R2">
-        <v>0.08387273168999999</v>
+        <v>0.137428793595</v>
       </c>
       <c r="S2">
-        <v>0.3337024803851839</v>
+        <v>0.4052712693903822</v>
       </c>
       <c r="T2">
-        <v>0.333702480385184</v>
+        <v>0.4052712693903822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +584,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2982203333333334</v>
+        <v>0.149358</v>
       </c>
       <c r="H3">
-        <v>0.894661</v>
+        <v>0.448074</v>
       </c>
       <c r="I3">
-        <v>0.6662975196148161</v>
+        <v>0.2473368757017301</v>
       </c>
       <c r="J3">
-        <v>0.6662975196148161</v>
+        <v>0.24733687570173</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,16 +629,140 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01860745769833334</v>
+        <v>0.00931919241</v>
       </c>
       <c r="R3">
-        <v>0.167467119285</v>
+        <v>0.08387273168999999</v>
       </c>
       <c r="S3">
-        <v>0.6662975196148161</v>
+        <v>0.2473368757017301</v>
       </c>
       <c r="T3">
-        <v>0.6662975196148161</v>
+        <v>0.24733687570173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1021816666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.306545</v>
+      </c>
+      <c r="I4">
+        <v>0.1692128589518402</v>
+      </c>
+      <c r="J4">
+        <v>0.1692128589518402</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.062395</v>
+      </c>
+      <c r="N4">
+        <v>0.187185</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.006375625091666667</v>
+      </c>
+      <c r="R4">
+        <v>0.057380625825</v>
+      </c>
+      <c r="S4">
+        <v>0.1692128589518402</v>
+      </c>
+      <c r="T4">
+        <v>0.1692128589518402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.107596</v>
+      </c>
+      <c r="H5">
+        <v>0.322788</v>
+      </c>
+      <c r="I5">
+        <v>0.1781789959560476</v>
+      </c>
+      <c r="J5">
+        <v>0.1781789959560476</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.062395</v>
+      </c>
+      <c r="N5">
+        <v>0.187185</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.006713452420000001</v>
+      </c>
+      <c r="R5">
+        <v>0.06042107178</v>
+      </c>
+      <c r="S5">
+        <v>0.1781789959560476</v>
+      </c>
+      <c r="T5">
+        <v>0.1781789959560476</v>
       </c>
     </row>
   </sheetData>
